--- a/RentMarketEquilibriumUniform.xlsx
+++ b/RentMarketEquilibriumUniform.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>AvgIncome</t>
-  </si>
-  <si>
-    <t>GiniIndex</t>
   </si>
   <si>
     <t>Income[%0-%10]</t>
@@ -89,6 +87,9 @@
   <si>
     <t>AvgRent</t>
   </si>
+  <si>
+    <t>GiniIndex</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -157,6 +158,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +176,1044 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3273953420878729E-2"/>
+          <c:y val="3.1489439203968614E-2"/>
+          <c:w val="0.87354509464711827"/>
+          <c:h val="0.83661737153120275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>775.95652541828963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553.39808535827206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.04395707112565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.91650604441364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.741784570084114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1073.9825243084265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>813.39817645741527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>558.37891027187197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313.6708884307676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.02042579582799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1340.8643403370902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1057.6709713094644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>764.83357565147514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486.58860870092121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223.23645728775978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80,000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1826.1334478354506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1513.0987043081736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1171.80857249581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816.19865568547925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485.14376829097654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="534533096"/>
+        <c:axId val="534540544"/>
+        <c:axId val="532330464"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="534533096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534540544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="534540544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534533096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="532330464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534540544"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364190</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,7 +1506,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -481,73 +1523,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -555,7 +1597,7 @@
         <v>0.25</v>
       </c>
       <c r="B2" s="2">
-        <v>3333.333333333333</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="5">
         <v>1440</v>
@@ -588,7 +1630,7 @@
         <v>6003</v>
       </c>
       <c r="M2" s="2">
-        <f>AVERAGE(N2:W2)</f>
+        <f t="shared" ref="M2:M21" si="0">AVERAGE(N2:W2)</f>
         <v>775.95652541828963</v>
       </c>
       <c r="N2" s="5">
@@ -627,7 +1669,7 @@
         <v>0.3</v>
       </c>
       <c r="B3" s="2">
-        <v>3333.333333333333</v>
+        <v>40000</v>
       </c>
       <c r="C3" s="5">
         <v>1153</v>
@@ -660,7 +1702,7 @@
         <v>6671</v>
       </c>
       <c r="M3" s="2">
-        <f>AVERAGE(N3:W3)</f>
+        <f t="shared" si="0"/>
         <v>553.39808535827206</v>
       </c>
       <c r="N3" s="5">
@@ -699,7 +1741,7 @@
         <v>0.35</v>
       </c>
       <c r="B4" s="2">
-        <v>3333.333333333333</v>
+        <v>40000</v>
       </c>
       <c r="C4" s="5">
         <v>898</v>
@@ -732,7 +1774,7 @@
         <v>7400</v>
       </c>
       <c r="M4" s="2">
-        <f>AVERAGE(N4:W4)</f>
+        <f t="shared" si="0"/>
         <v>340.04395707112565</v>
       </c>
       <c r="N4" s="5">
@@ -771,7 +1813,7 @@
         <v>0.4</v>
       </c>
       <c r="B5" s="2">
-        <v>3333.333333333333</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="5">
         <v>676</v>
@@ -804,7 +1846,7 @@
         <v>8204</v>
       </c>
       <c r="M5" s="2">
-        <f>AVERAGE(N5:W5)</f>
+        <f t="shared" si="0"/>
         <v>134.91650604441364</v>
       </c>
       <c r="N5" s="5">
@@ -843,7 +1885,7 @@
         <v>0.45</v>
       </c>
       <c r="B6" s="2">
-        <v>3333.333333333333</v>
+        <v>40000</v>
       </c>
       <c r="C6" s="5">
         <v>488</v>
@@ -876,7 +1918,7 @@
         <v>9098</v>
       </c>
       <c r="M6" s="2">
-        <f>AVERAGE(N6:W6)</f>
+        <f t="shared" si="0"/>
         <v>42.741784570084114</v>
       </c>
       <c r="N6" s="5">
@@ -915,7 +1957,7 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="2">
-        <v>4166.666666666667</v>
+        <v>50000</v>
       </c>
       <c r="C7" s="5">
         <v>1800</v>
@@ -948,7 +1990,7 @@
         <v>7504</v>
       </c>
       <c r="M7" s="2">
-        <f>AVERAGE(N7:W7)</f>
+        <f t="shared" si="0"/>
         <v>1073.9825243084265</v>
       </c>
       <c r="N7" s="5">
@@ -987,7 +2029,7 @@
         <v>0.3</v>
       </c>
       <c r="B8" s="2">
-        <v>4166.666666666667</v>
+        <v>50000</v>
       </c>
       <c r="C8" s="5">
         <v>1441</v>
@@ -1020,7 +2062,7 @@
         <v>8339</v>
       </c>
       <c r="M8" s="2">
-        <f>AVERAGE(N8:W8)</f>
+        <f t="shared" si="0"/>
         <v>813.39817645741527</v>
       </c>
       <c r="N8" s="5">
@@ -1059,7 +2101,7 @@
         <v>0.35</v>
       </c>
       <c r="B9" s="2">
-        <v>4166.666666666667</v>
+        <v>50000</v>
       </c>
       <c r="C9" s="5">
         <v>1122</v>
@@ -1092,7 +2134,7 @@
         <v>9251</v>
       </c>
       <c r="M9" s="2">
-        <f>AVERAGE(N9:W9)</f>
+        <f t="shared" si="0"/>
         <v>558.37891027187197</v>
       </c>
       <c r="N9" s="5">
@@ -1131,7 +2173,7 @@
         <v>0.4</v>
       </c>
       <c r="B10" s="2">
-        <v>4166.666666666667</v>
+        <v>50000</v>
       </c>
       <c r="C10" s="5">
         <v>845</v>
@@ -1164,7 +2206,7 @@
         <v>10256</v>
       </c>
       <c r="M10" s="2">
-        <f>AVERAGE(N10:W10)</f>
+        <f t="shared" si="0"/>
         <v>313.6708884307676</v>
       </c>
       <c r="N10" s="5">
@@ -1203,7 +2245,7 @@
         <v>0.45</v>
       </c>
       <c r="B11" s="2">
-        <v>4166.666666666667</v>
+        <v>50000</v>
       </c>
       <c r="C11" s="5">
         <v>610</v>
@@ -1236,7 +2278,7 @@
         <v>11373</v>
       </c>
       <c r="M11" s="2">
-        <f>AVERAGE(N11:W11)</f>
+        <f t="shared" si="0"/>
         <v>111.02042579582799</v>
       </c>
       <c r="N11" s="5">
@@ -1275,7 +2317,7 @@
         <v>0.25</v>
       </c>
       <c r="B12" s="2">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="C12" s="5">
         <v>2160</v>
@@ -1308,7 +2350,7 @@
         <v>9005</v>
       </c>
       <c r="M12" s="2">
-        <f>AVERAGE(N12:W12)</f>
+        <f t="shared" si="0"/>
         <v>1340.8643403370902</v>
       </c>
       <c r="N12" s="5">
@@ -1347,7 +2389,7 @@
         <v>0.3</v>
       </c>
       <c r="B13" s="2">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="C13" s="5">
         <v>1729</v>
@@ -1380,7 +2422,7 @@
         <v>10006</v>
       </c>
       <c r="M13" s="2">
-        <f>AVERAGE(N13:W13)</f>
+        <f t="shared" si="0"/>
         <v>1057.6709713094644</v>
       </c>
       <c r="N13" s="5">
@@ -1419,7 +2461,7 @@
         <v>0.35</v>
       </c>
       <c r="B14" s="2">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="C14" s="5">
         <v>1347</v>
@@ -1452,7 +2494,7 @@
         <v>11101</v>
       </c>
       <c r="M14" s="2">
-        <f>AVERAGE(N14:W14)</f>
+        <f t="shared" si="0"/>
         <v>764.83357565147514</v>
       </c>
       <c r="N14" s="5">
@@ -1491,7 +2533,7 @@
         <v>0.4</v>
       </c>
       <c r="B15" s="2">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="C15" s="5">
         <v>1014</v>
@@ -1524,7 +2566,7 @@
         <v>12307</v>
       </c>
       <c r="M15" s="2">
-        <f>AVERAGE(N15:W15)</f>
+        <f t="shared" si="0"/>
         <v>486.58860870092121</v>
       </c>
       <c r="N15" s="5">
@@ -1563,7 +2605,7 @@
         <v>0.45</v>
       </c>
       <c r="B16" s="2">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="C16" s="5">
         <v>732</v>
@@ -1596,7 +2638,7 @@
         <v>13647</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(N16:W16)</f>
+        <f t="shared" si="0"/>
         <v>223.23645728775978</v>
       </c>
       <c r="N16" s="5">
@@ -1635,7 +2677,7 @@
         <v>0.25</v>
       </c>
       <c r="B17" s="2">
-        <v>6666.666666666667</v>
+        <v>80000</v>
       </c>
       <c r="C17" s="5">
         <v>2880</v>
@@ -1668,7 +2710,7 @@
         <v>12007</v>
       </c>
       <c r="M17" s="2">
-        <f>AVERAGE(N17:W17)</f>
+        <f t="shared" si="0"/>
         <v>1826.1334478354506</v>
       </c>
       <c r="N17" s="5">
@@ -1707,7 +2749,7 @@
         <v>0.3</v>
       </c>
       <c r="B18" s="2">
-        <v>6666.666666666667</v>
+        <v>80000</v>
       </c>
       <c r="C18" s="5">
         <v>2306</v>
@@ -1740,7 +2782,7 @@
         <v>13342</v>
       </c>
       <c r="M18" s="2">
-        <f>AVERAGE(N18:W18)</f>
+        <f t="shared" si="0"/>
         <v>1513.0987043081736</v>
       </c>
       <c r="N18" s="5">
@@ -1779,7 +2821,7 @@
         <v>0.35</v>
       </c>
       <c r="B19" s="2">
-        <v>6666.666666666667</v>
+        <v>80000</v>
       </c>
       <c r="C19" s="5">
         <v>1796</v>
@@ -1812,7 +2854,7 @@
         <v>14801</v>
       </c>
       <c r="M19" s="2">
-        <f>AVERAGE(N19:W19)</f>
+        <f t="shared" si="0"/>
         <v>1171.80857249581</v>
       </c>
       <c r="N19" s="5">
@@ -1851,7 +2893,7 @@
         <v>0.4</v>
       </c>
       <c r="B20" s="2">
-        <v>6666.666666666667</v>
+        <v>80000</v>
       </c>
       <c r="C20" s="5">
         <v>1353</v>
@@ -1884,7 +2926,7 @@
         <v>16409</v>
       </c>
       <c r="M20" s="2">
-        <f>AVERAGE(N20:W20)</f>
+        <f t="shared" si="0"/>
         <v>816.19865568547925</v>
       </c>
       <c r="N20" s="5">
@@ -1923,7 +2965,7 @@
         <v>0.45</v>
       </c>
       <c r="B21" s="2">
-        <v>6666.666666666667</v>
+        <v>80000</v>
       </c>
       <c r="C21" s="5">
         <v>976</v>
@@ -1956,7 +2998,7 @@
         <v>18197</v>
       </c>
       <c r="M21" s="2">
-        <f>AVERAGE(N21:W21)</f>
+        <f t="shared" si="0"/>
         <v>485.14376829097654</v>
       </c>
       <c r="N21" s="5">
@@ -1993,4 +3035,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8">
+        <v>40000</v>
+      </c>
+      <c r="C1" s="8">
+        <v>50000</v>
+      </c>
+      <c r="D1" s="8">
+        <v>60000</v>
+      </c>
+      <c r="E1" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>775.95652541828963</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1073.9825243084265</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1340.8643403370902</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1826.1334478354506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>553.39808535827206</v>
+      </c>
+      <c r="C3" s="2">
+        <v>813.39817645741527</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1057.6709713094644</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1513.0987043081736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>340.04395707112565</v>
+      </c>
+      <c r="C4" s="2">
+        <v>558.37891027187197</v>
+      </c>
+      <c r="D4" s="2">
+        <v>764.83357565147514</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1171.80857249581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>134.91650604441364</v>
+      </c>
+      <c r="C5" s="2">
+        <v>313.6708884307676</v>
+      </c>
+      <c r="D5" s="2">
+        <v>486.58860870092121</v>
+      </c>
+      <c r="E5" s="2">
+        <v>816.19865568547925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42.741784570084114</v>
+      </c>
+      <c r="C6" s="2">
+        <v>111.02042579582799</v>
+      </c>
+      <c r="D6" s="2">
+        <v>223.23645728775978</v>
+      </c>
+      <c r="E6" s="2">
+        <v>485.14376829097654</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>